--- a/src/main/resources/file/liste-patient-symptome.xlsx
+++ b/src/main/resources/file/liste-patient-symptome.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomena/S5/Mr-Tahina/Docteur/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomena/S5/Mr-Tahina/Docteur/src/main/resources/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBB9A9C-38C8-BC43-83FD-E859ED73DA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C1988-CB02-6C4A-9BA7-7F7B01FE2F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="640" windowWidth="27640" windowHeight="16440" xr2:uid="{D97048E4-30E5-794B-A2C6-A877D153CFE1}"/>
+    <workbookView xWindow="11760" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{D97048E4-30E5-794B-A2C6-A877D153CFE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Intensité </t>
   </si>
   <si>
     <t>Symptôme</t>
-  </si>
-  <si>
-    <t>Patient</t>
   </si>
 </sst>
 </file>
@@ -404,23 +401,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF35D1-C5DA-B642-AD5D-DCCBCD7CBC77}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/file/liste-patient-symptome.xlsx
+++ b/src/main/resources/file/liste-patient-symptome.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomena/S5/Mr-Tahina/Docteur/src/main/resources/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C1988-CB02-6C4A-9BA7-7F7B01FE2F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B308CE1-B816-7C47-8F19-4C76C0667B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{D97048E4-30E5-794B-A2C6-A877D153CFE1}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{D97048E4-30E5-794B-A2C6-A877D153CFE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF35D1-C5DA-B642-AD5D-DCCBCD7CBC77}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -451,25 +451,9 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
         <v>9</v>
       </c>
     </row>

--- a/src/main/resources/file/liste-patient-symptome.xlsx
+++ b/src/main/resources/file/liste-patient-symptome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomena/S5/Mr-Tahina/Docteur/src/main/resources/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B308CE1-B816-7C47-8F19-4C76C0667B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BBCE58-37F2-FA49-973B-4BECADFB7186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{D97048E4-30E5-794B-A2C6-A877D153CFE1}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/file/liste-patient-symptome.xlsx
+++ b/src/main/resources/file/liste-patient-symptome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomena/S5/Mr-Tahina/Docteur/src/main/resources/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BBCE58-37F2-FA49-973B-4BECADFB7186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1BE1D7-AF89-8643-891D-03E07AB84D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{D97048E4-30E5-794B-A2C6-A877D153CFE1}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF35D1-C5DA-B642-AD5D-DCCBCD7CBC77}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,9 +451,25 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>9</v>
       </c>
     </row>

--- a/src/main/resources/file/liste-patient-symptome.xlsx
+++ b/src/main/resources/file/liste-patient-symptome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomena/S5/Mr-Tahina/Docteur/src/main/resources/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1BE1D7-AF89-8643-891D-03E07AB84D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4975D238-5361-A04F-AA64-2813DFCA1D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{D97048E4-30E5-794B-A2C6-A877D153CFE1}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF35D1-C5DA-B642-AD5D-DCCBCD7CBC77}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,25 +451,9 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
         <v>9</v>
       </c>
     </row>

--- a/src/main/resources/file/liste-patient-symptome.xlsx
+++ b/src/main/resources/file/liste-patient-symptome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomena/S5/Mr-Tahina/Docteur/src/main/resources/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4975D238-5361-A04F-AA64-2813DFCA1D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB8B540-9D51-F047-9735-9E2DAC98001A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{D97048E4-30E5-794B-A2C6-A877D153CFE1}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +62,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF35D1-C5DA-B642-AD5D-DCCBCD7CBC77}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,43 +425,51 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>5</v>
+      <c r="B2" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>7</v>
+      <c r="B3" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>8</v>
+      <c r="B4" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/file/liste-patient-symptome.xlsx
+++ b/src/main/resources/file/liste-patient-symptome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomena/S5/Mr-Tahina/Docteur/src/main/resources/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB8B540-9D51-F047-9735-9E2DAC98001A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05350B07-7717-6845-ACB4-CACC97824546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{D97048E4-30E5-794B-A2C6-A877D153CFE1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="18000" xr2:uid="{D97048E4-30E5-794B-A2C6-A877D153CFE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -461,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
